--- a/power_comp_1_row_40_20_col_2.xlsx
+++ b/power_comp_1_row_40_20_col_2.xlsx
@@ -68,127 +68,127 @@
     <t xml:space="preserve">&lt; -0.0546</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0426</t>
+    <t xml:space="preserve">&lt; -0.0425</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0523</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0018 -0.0549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0549</t>
+    <t xml:space="preserve">&lt; -0.0499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0018 -0.0548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0548</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0327</t>
   </si>
   <si>
+    <t xml:space="preserve">0.0865 -0.0206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.028</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.0857 -0.0206</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0872 -0.0206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0336 -0.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7375 0.0121</t>
+    <t xml:space="preserve">0.034 -0.0329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7357 0.0121</t>
   </si>
   <si>
     <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4579 0.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8196 0.0047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9466 0.0121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5864 -2e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5054 -3e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2387 -0.0121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1395 -0.0098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.417 -0.0074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5191 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3999 -0.0123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304 -0.0123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5778 0.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6201 0.0098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5188 -0.0026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5197 -0.0026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4946 -0.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3053 0.0074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3107 -0.0049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1719 -0.0049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1394 -0.0047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2038 -0.0123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0304 -0.0123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0304 -0.0121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4521 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3884 2e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5064 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4593 3e-04</t>
+    <t xml:space="preserve">0.4531 0.0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818 0.0046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9462 0.0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5902 -2e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5075 -3e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2404 -0.0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1388 -0.0098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4144 -0.0074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5166 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4032 -0.0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3063 -0.0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575 0.0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6198 0.0098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.524 -0.0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5219 -0.0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4995 -0.0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303 0.0074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3138 -0.0049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1709 -0.0049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1408 -0.0046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2058 -0.0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0307 -0.0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0307 -0.0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4493 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3846 2e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.509 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.457 3e-04</t>
   </si>
 </sst>
 </file>
